--- a/exercisesLifeContingencies/annuities/makeham_law_annuities_woolhouse_approx_10.xlsx
+++ b/exercisesLifeContingencies/annuities/makeham_law_annuities_woolhouse_approx_10.xlsx
@@ -1,103 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\Dropbox (MagentaKoncept)\PedroCR\PycharmProjects\lifeActuary\exercisesLifeContingencies\annuities\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3232B542-C37F-40BC-9E0E-2718D076864C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1913" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Exact</t>
-  </si>
-  <si>
-    <t>Continuous</t>
-  </si>
-  <si>
-    <t>UDD</t>
-  </si>
-  <si>
-    <t>W2</t>
-  </si>
-  <si>
-    <t>W3</t>
-  </si>
-  <si>
-    <t>W3_app</t>
-  </si>
-  <si>
-    <t>aa_20_12</t>
-  </si>
-  <si>
-    <t>aa_30_12</t>
-  </si>
-  <si>
-    <t>aa_40_12</t>
-  </si>
-  <si>
-    <t>aa_50_12</t>
-  </si>
-  <si>
-    <t>aa_60_12</t>
-  </si>
-  <si>
-    <t>aa_70_12</t>
-  </si>
-  <si>
-    <t>aa_80_12</t>
-  </si>
-  <si>
-    <t>aa_90_12</t>
-  </si>
-  <si>
-    <t>aa_100_12</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -112,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,282 +420,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exact</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Continuous</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UDD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>W3_app</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>6.4654920436482621</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>aa_20_12</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6.465492043648262</v>
+      </c>
+      <c r="D2" t="n">
         <v>6.439811847677599</v>
       </c>
-      <c r="E2" s="2">
-        <v>6.4654890653760626</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="E2" t="n">
+        <v>6.465489065376063</v>
+      </c>
+      <c r="F2" t="n">
         <v>6.470356688225241</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" t="n">
         <v>6.465491298629253</v>
       </c>
-      <c r="H2" s="2">
-        <v>6.4654912998821068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="H2" t="n">
+        <v>6.465491299882107</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6.4630134485337543</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6.4373143793009016</v>
-      </c>
-      <c r="E3" s="2">
-        <v>6.4630038203094511</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.4678804616340679</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>aa_30_12</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6.463013448533754</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.437314379300902</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.463003820309451</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.467880461634068</v>
+      </c>
+      <c r="G3" t="n">
         <v>6.463012703117947</v>
       </c>
-      <c r="H3" s="2">
-        <v>6.4630127071256158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="H3" t="n">
+        <v>6.463012707125616</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6.4550467168157892</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6.4292870526857406</v>
-      </c>
-      <c r="E4" s="2">
-        <v>6.4550158232568942</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6.4599214258725342</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6.4550459701010077</v>
-      </c>
-      <c r="H4" s="2">
-        <v>6.4550459827444344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>aa_40_12</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6.455046716815789</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.429287052685741</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6.455015823256894</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6.459921425872534</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.455045970101008</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.455045982744434</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>aa_50_12</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>6.429516706464061</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" t="n">
         <v>6.403563558797984</v>
       </c>
-      <c r="E5" s="2">
-        <v>6.4294187876112119</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6.4344169313059689</v>
-      </c>
-      <c r="G5" s="2">
-        <v>6.4295159553541943</v>
-      </c>
-      <c r="H5" s="2">
-        <v>6.4295159934218251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="E5" t="n">
+        <v>6.429418787611212</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.434416931305969</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6.429515955354194</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.429515993421825</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.3484873057158469</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.3219271365066376</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6.3481879985113849</v>
-      </c>
-      <c r="F6" s="2">
-        <v>6.3534771433180568</v>
-      </c>
-      <c r="G6" s="2">
-        <v>6.3484865386193174</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6.3484866346276361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>aa_60_12</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.348487305715847</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.321927136506638</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.348187998511385</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.353477143318057</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.348486538619317</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.348486634627636</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>70</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.0990505806804203</v>
-      </c>
-      <c r="D7" s="2">
-        <v>6.0706902396652023</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>aa_70_12</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6.09905058068042</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.070690239665202</v>
+      </c>
+      <c r="E7" t="n">
         <v>6.098240297056857</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" t="n">
         <v>6.104398984296961</v>
       </c>
-      <c r="G7" s="2">
-        <v>6.0990497537907649</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6.0990498098072221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="G7" t="n">
+        <v>6.099049753790765</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.099049809807222</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5.4002668018198756</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5.3674351147002151</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5.3989177525292877</v>
-      </c>
-      <c r="F8" s="2">
-        <v>5.4072931387836727</v>
-      </c>
-      <c r="G8" s="2">
-        <v>5.4002658981421412</v>
-      </c>
-      <c r="H8" s="2">
-        <v>5.4002640583929971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>aa_80_12</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5.400266801819876</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.367435114700215</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.398917752529288</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.407293138783673</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.400265898142141</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.400264058392997</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>90</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3.8974855109493158</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>aa_90_12</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3.897485510949316</v>
+      </c>
+      <c r="D9" t="n">
         <v>3.858118462470804</v>
       </c>
-      <c r="E9" s="2">
-        <v>3.8997214143580421</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3.9116827030738599</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.8974851586554831</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3.8974697825180451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="E9" t="n">
+        <v>3.899721414358042</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3.91168270307386</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.897485158655483</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.897469782518045</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>100</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.0497243616923639</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>aa_100_12</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.049724361692364</v>
+      </c>
+      <c r="D10" t="n">
         <v>2.007852044259189</v>
       </c>
-      <c r="E10" s="2">
-        <v>2.0699326275758732</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="E10" t="n">
+        <v>2.069932627575873</v>
+      </c>
+      <c r="F10" t="n">
         <v>2.084165115297961</v>
       </c>
-      <c r="G10" s="2">
-        <v>2.0496838043919121</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2.0496232251966182</v>
+      <c r="G10" t="n">
+        <v>2.049683804391912</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.049623225196618</v>
       </c>
     </row>
   </sheetData>
